--- a/Address_Book.xlsx
+++ b/Address_Book.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\logan\Documents\GitHub\Farrell_Garrett_Wedding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logan\Documents\GitHub\Farrell_Garrett_Wedding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{898E2AAA-5CC2-45BA-A7F9-1FABD48EAB13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A2397F-2F88-4188-BDFB-12C95570F582}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="485">
   <si>
     <t xml:space="preserve">Priority </t>
   </si>
@@ -1467,6 +1470,27 @@
   </si>
   <si>
     <t xml:space="preserve">Brandon </t>
+  </si>
+  <si>
+    <t>4024 W Belle Plaine Ave, Chicago, iL 60641</t>
+  </si>
+  <si>
+    <t>932 W Barry Ave. Apt 3, Chicago, IL 60657</t>
+  </si>
+  <si>
+    <t>226 Bay Colony Dr. Naperville, IL 60565</t>
+  </si>
+  <si>
+    <t>3147 Karnopp Ct., Sturtevant, WI 53177</t>
+  </si>
+  <si>
+    <t>385 N Highland Ave.  Elmhurst, IL 60126</t>
+  </si>
+  <si>
+    <t>Ben and Leah Honey</t>
+  </si>
+  <si>
+    <t>1619 Roaring Springs Lane, Seabrook, TX, 77586</t>
   </si>
 </sst>
 </file>
@@ -1928,8 +1952,8 @@
   <dimension ref="A1:AD212"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A1:AD132"/>
+      <pane ySplit="4" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10835,10 +10859,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9AC5BCF-9EF6-4760-9368-2BD8EA71FC59}">
-  <dimension ref="A1:C129"/>
+  <dimension ref="A1:C130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11460,328 +11484,336 @@
         <v>164</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>483</v>
+      </c>
+      <c r="B84" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B87" t="s">
         <v>149</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>70</v>
-      </c>
-      <c r="B87" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="B88" t="s">
-        <v>129</v>
+        <v>481</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="B89" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B90" t="s">
-        <v>137</v>
+        <v>479</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>153</v>
+        <v>72</v>
       </c>
       <c r="B91" t="s">
-        <v>142</v>
+        <v>480</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B92" t="s">
-        <v>134</v>
+        <v>482</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B93" t="s">
-        <v>126</v>
+        <v>478</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="B94" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="B95" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="B96" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="B97" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="B98" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="B99" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>147</v>
+        <v>75</v>
       </c>
       <c r="B100" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B101" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>225</v>
+        <v>148</v>
       </c>
       <c r="B102" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>114</v>
+        <v>225</v>
       </c>
       <c r="B103" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="B104" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B105" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="B106" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>223</v>
+        <v>78</v>
       </c>
       <c r="B107" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B108" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B109" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c r="B110" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>77</v>
+      </c>
+      <c r="B111" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>221</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B112" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>464</v>
-      </c>
-      <c r="B114" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>80</v>
+        <v>464</v>
       </c>
       <c r="B115" t="s">
-        <v>136</v>
+        <v>197</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="B116" t="s">
-        <v>198</v>
+        <v>136</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>81</v>
+        <v>229</v>
       </c>
       <c r="B117" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B118" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>230</v>
+        <v>82</v>
       </c>
       <c r="B119" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B120" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B121" t="s">
-        <v>202</v>
+        <v>235</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>232</v>
+      </c>
+      <c r="B122" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>233</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B123" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>205</v>
+        <v>254</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>255</v>
+        <v>206</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>292</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A3:A8 A50:A56 A42:A47 A114:A122 A86:A111 A59:A83 A11:A38 A125:A129">
+  <conditionalFormatting sqref="A3:A8 A50:A56 A42:A47 A115:A123 A87:A112 A59:A84 A11:A38 A126:A130">
     <cfRule type="expression" dxfId="1" priority="4">
       <formula>ISBLANK(#REF!)</formula>
     </cfRule>
